--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRANSPARENCIA UPP\SIPOT 3ER TRI 23\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO. 1\modificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C26C123-3693-45E6-BEFC-8FE309015BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C2639-D830-4966-8A47-E2DA6C0E3E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,16 +591,19 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
-    <t>Dirección de Comunicación Social (UPP)</t>
-  </si>
-  <si>
-    <t>En este periodo la Dirección de Comunicación no ejerció recursos para la contratación de publicidad oficial.</t>
+    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
+  </si>
+  <si>
+    <t>En este periodo no se ejercieron recursos para la contratación de publicidad oficial.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,19 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,9 +715,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -728,7 +731,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -740,7 +743,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -752,7 +755,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -787,6 +790,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -822,9 +842,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -966,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -977,7 +1014,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,9 +1025,9 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
@@ -1014,7 +1051,7 @@
     <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.140625" customWidth="1"/>
+    <col min="35" max="35" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
@@ -1039,7 +1076,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:35" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1050,11 +1087,11 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1163,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="11.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1416,54 +1453,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2023</v>
       </c>
-      <c r="B8" s="8">
-        <v>45108</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45199</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7" t="s">
+      <c r="B8" s="10">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="AG8" s="8">
-        <v>45209</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>45209</v>
-      </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AG8" s="10">
+        <v>45301</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>45301</v>
+      </c>
+      <c r="AI8" s="7" t="s">
         <v>182</v>
       </c>
     </row>
